--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
-    <t xml:space="preserve">indicator</t>
+    <t xml:space="preserve">indicator_name</t>
   </si>
   <si>
     <t xml:space="preserve">stand_static_variables</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">Miquel</t>
   </si>
   <si>
-    <t xml:space="preserve">name</t>
+    <t xml:space="preserve">variable_name</t>
   </si>
   <si>
     <t xml:space="preserve">level</t>
@@ -218,12 +218,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -418,99 +422,105 @@
   </sheetPr>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="22.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="43.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="29.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="22.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="22.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="43.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="24.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="29.71"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0"/>
-      <c r="N1" s="0"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="G2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="G3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -532,93 +542,93 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.43"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuria.aquilue\Generalitat de Catalunya\NAquilué - General\COLLABORATIONS\EMF\forestindicators\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat.sharepoint.com/sites/CTFC_NAquilu/Documents compartits/General/COLLABORATIONS/EMF/forestindicators/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C03D9AB-CFF9-420A-932D-3383812415BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{2C03D9AB-CFF9-420A-932D-3383812415BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EEAE082-A1DB-48F8-B706-BC24553D94E2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,19 @@
     <sheet name="indicators" sheetId="1" r:id="rId1"/>
     <sheet name="variables" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>stand_static_variables</t>
   </si>
@@ -127,15 +138,9 @@
     <t>slope</t>
   </si>
   <si>
-    <t>mean_annual_precipitation, canopy_cover</t>
-  </si>
-  <si>
     <t>timber_harvest_01</t>
   </si>
   <si>
-    <t>state, species, dbh, h, n</t>
-  </si>
-  <si>
     <t>stand</t>
   </si>
   <si>
@@ -190,9 +195,6 @@
     <t>degree of beautiness of plant; value 0 (low) - 1 (high)</t>
   </si>
   <si>
-    <t>state, species, dbh, n</t>
-  </si>
-  <si>
     <t>variable</t>
   </si>
   <si>
@@ -206,6 +208,30 @@
   </si>
   <si>
     <t>density</t>
+  </si>
+  <si>
+    <t>º</t>
+  </si>
+  <si>
+    <t>slope in degrees</t>
+  </si>
+  <si>
+    <t>mean_precipitation</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean precipitation for the time period </t>
+  </si>
+  <si>
+    <t>mean_precipitation, canopy_cover</t>
+  </si>
+  <si>
+    <t>state, dbh, n</t>
+  </si>
+  <si>
+    <t>state, dbh, h, n</t>
   </si>
 </sst>
 </file>
@@ -449,7 +475,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -541,7 +567,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -553,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -561,16 +587,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -581,10 +607,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,13 +621,13 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -612,172 +638,206 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="E11" t="s">
-        <v>53</v>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -861,4 +861,249 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095DDF5E8B92F09488F6994CC76A3261F" ma:contentTypeVersion="14" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="77fb5a445c241a114a6db4ced5f4c9a2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="10b2415f-6b16-408d-a5df-bf55a3837e9c" xmlns:ns3="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a9fed371820f3b6ac84a8d3142ba9e2" ns2:_="" ns3:_="">
+    <xsd:import namespace="10b2415f-6b16-408d-a5df-bf55a3837e9c"/>
+    <xsd:import namespace="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="10b2415f-6b16-408d-a5df-bf55a3837e9c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetes de la imatge" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d19f90c4-00d9-45b7-bc62-04f95cbe7a8b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="21" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cebcb379-39a5-4efc-8079-d623ba702961}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipus de contingut"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Títol"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="10b2415f-6b16-408d-a5df-bf55a3837e9c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB7D4ED6-746B-48CE-AEFA-75DD54485591}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDEF4A3-9AF9-4E88-BFDA-A0306FB881A6}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07A91501-B07B-4C88-A941-795638A5577F}"/>
 </file>
--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -1,18 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat.sharepoint.com/sites/CTFC_NAquilu/Documents compartits/General/COLLABORATIONS/EMF/forestindicators/data-raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_1261C2370B682EC8ABFD32753885C117BD985D05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F9CE67B-78B8-49C1-A885-E944C86F4606}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="indicators" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="variables" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="indicators" sheetId="1" r:id="rId1"/>
+    <sheet name="variables" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -23,203 +39,200 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
-    <t xml:space="preserve">indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stand_static_variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stand_dynamic_variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plant_static_input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plant_static_variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plant_dynamic_variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">output_units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estimation_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interpretation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">implementation_responsible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil_erosion_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_precipitation, canopy_cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mg / ha / yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUSLE...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evitated erosion due to forest cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Núria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timber_harvest_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state, dbh, h, n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miquel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recreational_value_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beautiness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state, dbh, n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numeric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">area of the stand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">º</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slope in degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">º C</t>
+    <t>indicator</t>
+  </si>
+  <si>
+    <t>stand_static_variables</t>
+  </si>
+  <si>
+    <t>stand_dynamic_variables</t>
+  </si>
+  <si>
+    <t>plant_static_input</t>
+  </si>
+  <si>
+    <t>plant_static_variables</t>
+  </si>
+  <si>
+    <t>plant_dynamic_variables</t>
+  </si>
+  <si>
+    <t>output_units</t>
+  </si>
+  <si>
+    <t>estimation_method</t>
+  </si>
+  <si>
+    <t>interpretation</t>
+  </si>
+  <si>
+    <t>implementation_responsible</t>
+  </si>
+  <si>
+    <t>soil_erosion_01</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>mean_precipitation, canopy_cover</t>
+  </si>
+  <si>
+    <t>Mg / ha / yr</t>
+  </si>
+  <si>
+    <t>RUSLE...</t>
+  </si>
+  <si>
+    <t>Evitated erosion due to forest cover</t>
+  </si>
+  <si>
+    <t>Núria</t>
+  </si>
+  <si>
+    <t>timber_harvest_01</t>
+  </si>
+  <si>
+    <t>state, dbh, h, n</t>
+  </si>
+  <si>
+    <t>Miquel</t>
+  </si>
+  <si>
+    <t>recreational_value_01</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>beautiness</t>
+  </si>
+  <si>
+    <t>state, dbh, n</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>area of the stand</t>
+  </si>
+  <si>
+    <t>º</t>
+  </si>
+  <si>
+    <t>slope in degrees</t>
+  </si>
+  <si>
+    <t>mean_temperature</t>
+  </si>
+  <si>
+    <t>º C</t>
   </si>
   <si>
     <t xml:space="preserve">mean temperature for the time period </t>
   </si>
   <si>
-    <t xml:space="preserve">mean_precipitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm</t>
+    <t>mean_precipitation</t>
+  </si>
+  <si>
+    <t>mm</t>
   </si>
   <si>
     <t xml:space="preserve">mean precipitation for the time period </t>
   </si>
   <si>
-    <t xml:space="preserve">canopy_cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cumulative tree canopy cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dominant_dbh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dbh of the 100 dominant trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">character</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state of the cohort, tree, … can be 'live', 'cut', or 'death'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name or code? of the tree, shrub, … species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dbh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diameter at breast height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind./ha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degree of beautiness of plant; value 0 (low) - 1 (high)</t>
+    <t>canopy_cover</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>cumulative tree canopy cover</t>
+  </si>
+  <si>
+    <t>dominant_dbh</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>dbh of the 100 dominant trees</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>state of the cohort, tree, … can be 'live', 'cut', or 'death'</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>name or code? of the tree, shrub, … species</t>
+  </si>
+  <si>
+    <t>dbh</t>
+  </si>
+  <si>
+    <t>diameter at breast height</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>ind./ha</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>degree of beautiness of plant; value 0 (low) - 1 (high)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,22 +241,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -260,7 +258,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -268,105 +266,78 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0e2841"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e8e8e8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e97132"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196b24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607d"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -398,7 +369,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -422,7 +393,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -482,40 +453,39 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="22.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="43.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="29.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="10.16"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" customWidth="1"/>
+    <col min="6" max="6" width="43.88671875" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
+    <col min="16383" max="16384" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,92 +516,84 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="K1"/>
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.11"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -648,222 +610,226 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095DDF5E8B92F09488F6994CC76A3261F" ma:contentTypeVersion="14" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="77fb5a445c241a114a6db4ced5f4c9a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="10b2415f-6b16-408d-a5df-bf55a3837e9c" xmlns:ns3="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a9fed371820f3b6ac84a8d3142ba9e2" ns2:_="" ns3:_="">
     <xsd:import namespace="10b2415f-6b16-408d-a5df-bf55a3837e9c"/>
@@ -1076,15 +1042,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1097,13 +1054,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB7D4ED6-746B-48CE-AEFA-75DD54485591}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDEF4A3-9AF9-4E88-BFDA-A0306FB881A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDEF4A3-9AF9-4E88-BFDA-A0306FB881A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB7D4ED6-746B-48CE-AEFA-75DD54485591}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="10b2415f-6b16-408d-a5df-bf55a3837e9c"/>
+    <ds:schemaRef ds:uri="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07A91501-B07B-4C88-A941-795638A5577F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07A91501-B07B-4C88-A941-795638A5577F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8"/>
+    <ds:schemaRef ds:uri="10b2415f-6b16-408d-a5df-bf55a3837e9c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat.sharepoint.com/sites/CTFC_NAquilu/Documents compartits/General/COLLABORATIONS/EMF/forestindicators/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_1261C2370B682EC8ABFD32753885C117BD985D05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F9CE67B-78B8-49C1-A885-E944C86F4606}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_1261C2370B682EC8ABFD32753885C117BD985D05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C65A9D5-8629-4CEC-A48C-3B97EDE1ED87}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>indicator</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>degree of beautiness of plant; value 0 (low) - 1 (high)</t>
+  </si>
+  <si>
+    <t>density_dead_wood</t>
+  </si>
+  <si>
+    <t>Density of large dead wood. By default, large dead tree is as DBH &gt;= 17.5 cm</t>
   </si>
 </sst>
 </file>
@@ -465,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,6 +577,20 @@
       </c>
       <c r="F4" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -830,6 +850,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="10b2415f-6b16-408d-a5df-bf55a3837e9c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095DDF5E8B92F09488F6994CC76A3261F" ma:contentTypeVersion="14" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="77fb5a445c241a114a6db4ced5f4c9a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="10b2415f-6b16-408d-a5df-bf55a3837e9c" xmlns:ns3="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a9fed371820f3b6ac84a8d3142ba9e2" ns2:_="" ns3:_="">
     <xsd:import namespace="10b2415f-6b16-408d-a5df-bf55a3837e9c"/>
@@ -1042,17 +1073,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="10b2415f-6b16-408d-a5df-bf55a3837e9c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDEF4A3-9AF9-4E88-BFDA-A0306FB881A6}">
   <ds:schemaRefs>
@@ -1062,6 +1082,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07A91501-B07B-4C88-A941-795638A5577F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8"/>
+    <ds:schemaRef ds:uri="10b2415f-6b16-408d-a5df-bf55a3837e9c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB7D4ED6-746B-48CE-AEFA-75DD54485591}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1078,15 +1109,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07A91501-B07B-4C88-A941-795638A5577F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8"/>
-    <ds:schemaRef ds:uri="10b2415f-6b16-408d-a5df-bf55a3837e9c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat.sharepoint.com/sites/CTFC_NAquilu/Documents compartits/General/COLLABORATIONS/EMF/forestindicators/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_1261C2370B682EC8ABFD32753885C117BD985D05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C65A9D5-8629-4CEC-A48C-3B97EDE1ED87}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="11_1261C2370B682EC8ABFD32753885C117BD985D05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5C540FA-AAEE-47C2-B4DB-CC804360C613}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" r:id="rId1"/>
-    <sheet name="variables" sheetId="2" r:id="rId2"/>
+    <sheet name="additional_parameters" sheetId="3" r:id="rId2"/>
+    <sheet name="variables" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
   <si>
     <t>indicator</t>
   </si>
@@ -48,9 +49,6 @@
     <t>stand_dynamic_variables</t>
   </si>
   <si>
-    <t>plant_static_input</t>
-  </si>
-  <si>
     <t>plant_static_variables</t>
   </si>
   <si>
@@ -69,9 +67,6 @@
     <t>implementation_responsible</t>
   </si>
   <si>
-    <t>soil_erosion_01</t>
-  </si>
-  <si>
     <t>slope</t>
   </si>
   <si>
@@ -90,18 +85,9 @@
     <t>Núria</t>
   </si>
   <si>
-    <t>timber_harvest_01</t>
-  </si>
-  <si>
     <t>state, dbh, h, n</t>
   </si>
   <si>
-    <t>Miquel</t>
-  </si>
-  <si>
-    <t>recreational_value_01</t>
-  </si>
-  <si>
     <t>area</t>
   </si>
   <si>
@@ -232,13 +218,67 @@
   </si>
   <si>
     <t>Density of large dead wood. By default, large dead tree is as DBH &gt;= 17.5 cm</t>
+  </si>
+  <si>
+    <t>soil_erosion_rusle</t>
+  </si>
+  <si>
+    <t>recreational_value</t>
+  </si>
+  <si>
+    <t>timber_harvest</t>
+  </si>
+  <si>
+    <t>Volume over bark of harvested wood</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>default_value</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>Threshold to define large trees to compute density of dead wood</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>?¿</t>
+  </si>
+  <si>
+    <t>min_tree_dbh</t>
+  </si>
+  <si>
+    <t>targeted_species</t>
+  </si>
+  <si>
+    <t>excluded_species</t>
+  </si>
+  <si>
+    <t>Tree species included in the calculation of harvested volume</t>
+  </si>
+  <si>
+    <t>Tree species not included in the calculation of harvested volume</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>max_tree_dbh</t>
+  </si>
+  <si>
+    <t>carbon_stock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +293,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,9 +322,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,27 +520,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" customWidth="1"/>
-    <col min="6" max="6" width="43.88671875" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="29.6640625" customWidth="1"/>
-    <col min="16383" max="16384" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="16382" max="16384" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,78 +568,77 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1"/>
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1"/>
-      <c r="L1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -600,6 +648,105 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E57A54-BEA4-4396-8C7E-0295C63368EF}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -615,223 +762,223 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -841,26 +988,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="10b2415f-6b16-408d-a5df-bf55a3837e9c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095DDF5E8B92F09488F6994CC76A3261F" ma:contentTypeVersion="14" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="77fb5a445c241a114a6db4ced5f4c9a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="10b2415f-6b16-408d-a5df-bf55a3837e9c" xmlns:ns3="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a9fed371820f3b6ac84a8d3142ba9e2" ns2:_="" ns3:_="">
     <xsd:import namespace="10b2415f-6b16-408d-a5df-bf55a3837e9c"/>
@@ -1073,10 +1200,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="10b2415f-6b16-408d-a5df-bf55a3837e9c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDEF4A3-9AF9-4E88-BFDA-A0306FB881A6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB7D4ED6-746B-48CE-AEFA-75DD54485591}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="10b2415f-6b16-408d-a5df-bf55a3837e9c"/>
+    <ds:schemaRef ds:uri="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1093,20 +1251,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB7D4ED6-746B-48CE-AEFA-75DD54485591}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBDEF4A3-9AF9-4E88-BFDA-A0306FB881A6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="10b2415f-6b16-408d-a5df-bf55a3837e9c"/>
-    <ds:schemaRef ds:uri="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
   <si>
     <t xml:space="preserve">indicator</t>
   </si>
@@ -114,18 +114,21 @@
     <t xml:space="preserve">province</t>
   </si>
   <si>
-    <t xml:space="preserve">?¿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Province</t>
+    <t xml:space="preserve">Spanish province (numeric code)</t>
   </si>
   <si>
     <t xml:space="preserve">min_tree_dbh</t>
   </si>
   <si>
+    <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of harvest volume</t>
+  </si>
+  <si>
     <t xml:space="preserve">max_tree_dbh</t>
   </si>
   <si>
+    <t xml:space="preserve">Maximum  tree diameter to be included in the estimation of density of harvest volume</t>
+  </si>
+  <si>
     <t xml:space="preserve">targeted_species</t>
   </si>
   <si>
@@ -147,7 +150,10 @@
     <t xml:space="preserve">17.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Threshold to define large trees to compute density of dead wood</t>
+    <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of density of dead wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum  tree diameter to be included in the estimation of density of dead wood</t>
   </si>
   <si>
     <t xml:space="preserve">variable</t>
@@ -550,7 +556,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="B10 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -685,13 +691,15 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="77.09"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,11 +723,8 @@
       <c r="B2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,6 +732,9 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>32</v>
       </c>
     </row>
@@ -737,16 +745,19 @@
       <c r="B4" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -754,10 +765,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,10 +776,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -776,10 +787,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,13 +798,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -802,6 +813,9 @@
       </c>
       <c r="B10" s="0" t="s">
         <v>33</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -823,7 +837,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="B10 E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -834,16 +848,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
@@ -854,16 +868,16 @@
         <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,169 +885,169 @@
         <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1041,16 +1055,16 @@
         <v>24</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t xml:space="preserve">indicator</t>
   </si>
@@ -51,6 +51,24 @@
     <t xml:space="preserve">implementation_responsible</t>
   </si>
   <si>
+    <t xml:space="preserve">basal_area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state, dbh, n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2/ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sum of tree sections weighted by tree density of trees larger than a pre-specified minimum parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basal area of the stand (focusing of living trees by default)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miquel De Cáceres</t>
+  </si>
+  <si>
     <t xml:space="preserve">timber_harvest</t>
   </si>
   <si>
@@ -60,7 +78,7 @@
     <t xml:space="preserve">Volume over bark of harvested wood</t>
   </si>
   <si>
-    <t xml:space="preserve">Núria</t>
+    <t xml:space="preserve">Núria Aquilué</t>
   </si>
   <si>
     <t xml:space="preserve">carbon_stock</t>
@@ -99,9 +117,6 @@
     <t xml:space="preserve">beautiness</t>
   </si>
   <si>
-    <t xml:space="preserve">state, dbh, n</t>
-  </si>
-  <si>
     <t xml:space="preserve">parameter</t>
   </si>
   <si>
@@ -111,13 +126,28 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
+    <t xml:space="preserve">min_tree_dbh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of basal area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tree_state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“live”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status of trees included in estimation of basal area</t>
+  </si>
+  <si>
     <t xml:space="preserve">province</t>
   </si>
   <si>
     <t xml:space="preserve">Spanish province (numeric code)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min_tree_dbh</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of harvest volume</t>
@@ -351,16 +381,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -553,123 +587,146 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="61.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="0" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="61.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="1" width="10.11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>13</v>
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -688,134 +745,162 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="77.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="77.09"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>36</v>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>38</v>
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>39</v>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>40</v>
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>42</v>
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -842,229 +927,229 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="44.11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
+    <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>53</v>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>56</v>
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>62</v>
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>65</v>
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>70</v>
+      <c r="A8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>72</v>
+      <c r="A9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="A10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="A12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>81</v>
+      <c r="E13" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="98">
   <si>
     <t xml:space="preserve">indicator</t>
   </si>
@@ -69,12 +69,30 @@
     <t xml:space="preserve">Miquel De Cáceres</t>
   </si>
   <si>
+    <t xml:space="preserve">dominant_tree_height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state, dbh, h, n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominant tree height, i.e the average height of the 100 tallest trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dominant_tree_diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominant tree diameter, i.e the average diameter of the 100 tallest trees</t>
+  </si>
+  <si>
     <t xml:space="preserve">timber_harvest</t>
   </si>
   <si>
-    <t xml:space="preserve">state, dbh, h, n</t>
-  </si>
-  <si>
     <t xml:space="preserve">Volume over bark of harvested wood</t>
   </si>
   <si>
@@ -144,6 +162,12 @@
     <t xml:space="preserve">Status of trees included in estimation of basal area</t>
   </si>
   <si>
+    <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of dominant tree height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of dominant tree diameter</t>
+  </si>
+  <si>
     <t xml:space="preserve">province</t>
   </si>
   <si>
@@ -246,9 +270,6 @@
     <t xml:space="preserve">dominant_dbh</t>
   </si>
   <si>
-    <t xml:space="preserve">cm</t>
-  </si>
-  <si>
     <t xml:space="preserve">dbh of the 100 dominant trees</t>
   </si>
   <si>
@@ -280,9 +301,6 @@
   </si>
   <si>
     <t xml:space="preserve">h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
   </si>
   <si>
     <t xml:space="preserve">height</t>
@@ -587,15 +605,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:XFD9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.45"/>
@@ -659,75 +677,129 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="XFB3" s="1"/>
+      <c r="XFC3" s="1"/>
+      <c r="XFD3" s="1"/>
+    </row>
+    <row r="4" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="XFB4" s="0"/>
+      <c r="XFC4" s="0"/>
+      <c r="XFD4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="3" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="XFB7" s="3"/>
+      <c r="XFC7" s="3"/>
+      <c r="XFD7" s="3"/>
+    </row>
+    <row r="8" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="XFB9" s="1"/>
+      <c r="XFC9" s="1"/>
+      <c r="XFD9" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -745,10 +817,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -764,13 +836,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,13 +850,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,115 +864,143 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
+      <c r="A5" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -933,223 +1033,223 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="104">
   <si>
     <t xml:space="preserve">indicator</t>
   </si>
@@ -78,6 +78,9 @@
     <t xml:space="preserve">m</t>
   </si>
   <si>
+    <t xml:space="preserve">The average height of the 100 tallest trees, excluding dead trees and trees of diameter smaller than threshold</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dominant tree height, i.e the average height of the 100 tallest trees</t>
   </si>
   <si>
@@ -87,7 +90,19 @@
     <t xml:space="preserve">cm</t>
   </si>
   <si>
-    <t xml:space="preserve">Dominant tree diameter, i.e the average diameter of the 100 tallest trees</t>
+    <t xml:space="preserve">The average diameter of the 100 largest trees, excluding dead trees and trees of diameter smaller than threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominant tree diameter, i.e the average diameter of the 100 largest trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quadratic_mean_tree_diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invert the calculation of tree section after dividing basal area by tree density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadratic mean tree diameter, i.e. the diameter value corresponding to the current basal area and density</t>
   </si>
   <si>
     <t xml:space="preserve">timber_harvest</t>
@@ -166,6 +181,9 @@
   </si>
   <si>
     <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of dominant tree diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of quadratic mean tree diameter</t>
   </si>
   <si>
     <t xml:space="preserve">province</t>
@@ -605,15 +623,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD9"/>
+  <dimension ref="A1:XFD10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.45"/>
@@ -690,9 +708,11 @@
       <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>14</v>
@@ -703,7 +723,7 @@
     </row>
     <row r="4" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -712,94 +732,122 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="XFB4" s="0"/>
-      <c r="XFC4" s="0"/>
-      <c r="XFD4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="XFB4" s="1"/>
+      <c r="XFC4" s="1"/>
+      <c r="XFD4" s="1"/>
+    </row>
+    <row r="5" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="XFB5" s="1"/>
+      <c r="XFC5" s="1"/>
+      <c r="XFD5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="XFB7" s="3"/>
-      <c r="XFC7" s="3"/>
-      <c r="XFD7" s="3"/>
-    </row>
-    <row r="8" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="XFB8" s="3"/>
+      <c r="XFC8" s="3"/>
+      <c r="XFD8" s="3"/>
     </row>
     <row r="9" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="XFB9" s="1"/>
-      <c r="XFC9" s="1"/>
-      <c r="XFD9" s="1"/>
+      <c r="XFB10" s="1"/>
+      <c r="XFC10" s="1"/>
+      <c r="XFD10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -817,9 +865,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -836,13 +884,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,13 +898,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,13 +912,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,129 +926,143 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1084,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1033,223 +1095,223 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
   <si>
     <t xml:space="preserve">indicator</t>
   </si>
@@ -78,10 +78,10 @@
     <t xml:space="preserve">m</t>
   </si>
   <si>
-    <t xml:space="preserve">The average height of the 100 tallest trees, excluding dead trees and trees of diameter smaller than threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominant tree height, i.e the average height of the 100 tallest trees</t>
+    <t xml:space="preserve">The average height of the 100 tallest trees per hectare, excluding dead trees and trees of diameter smaller than threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominant tree height, i.e the average height of the 100 tallest trees per hectare</t>
   </si>
   <si>
     <t xml:space="preserve">dominant_tree_diameter</t>
@@ -90,10 +90,10 @@
     <t xml:space="preserve">cm</t>
   </si>
   <si>
-    <t xml:space="preserve">The average diameter of the 100 largest trees, excluding dead trees and trees of diameter smaller than threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominant tree diameter, i.e the average diameter of the 100 largest trees</t>
+    <t xml:space="preserve">The average diameter of the 100 largest trees per hectare, excluding dead trees and trees of diameter smaller than threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominant tree diameter, i.e the average diameter of the 100 largest trees per hectare</t>
   </si>
   <si>
     <t xml:space="preserve">quadratic_mean_tree_diameter</t>
@@ -105,6 +105,18 @@
     <t xml:space="preserve">Quadratic mean tree diameter, i.e. the diameter value corresponding to the current basal area and density</t>
   </si>
   <si>
+    <t xml:space="preserve">hart_becking_index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio between the mean tree spacing and dominant tree height, multiplied by 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hart-Becking index of tree spacing</t>
+  </si>
+  <si>
     <t xml:space="preserve">timber_harvest</t>
   </si>
   <si>
@@ -186,6 +198,9 @@
     <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of quadratic mean tree diameter</t>
   </si>
   <si>
+    <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of hart-becking index</t>
+  </si>
+  <si>
     <t xml:space="preserve">province</t>
   </si>
   <si>
@@ -277,9 +292,6 @@
   </si>
   <si>
     <t xml:space="preserve">canopy_cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
   </si>
   <si>
     <t xml:space="preserve">cumulative tree canopy cover</t>
@@ -623,10 +635,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD10"/>
+  <dimension ref="A1:XFD11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -773,81 +785,107 @@
       <c r="XFC5" s="1"/>
       <c r="XFD5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="XFB6" s="1"/>
+      <c r="XFC6" s="1"/>
+      <c r="XFD6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="XFB8" s="3"/>
-      <c r="XFC8" s="3"/>
-      <c r="XFD8" s="3"/>
-    </row>
-    <row r="9" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="H9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="XFB9" s="3"/>
+      <c r="XFC9" s="3"/>
+      <c r="XFD9" s="3"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="XFB10" s="1"/>
-      <c r="XFC10" s="1"/>
-      <c r="XFD10" s="1"/>
+      <c r="XFB11" s="1"/>
+      <c r="XFC11" s="1"/>
+      <c r="XFD11" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -865,10 +903,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -884,13 +922,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,13 +936,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,13 +950,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -940,13 +978,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -954,115 +992,129 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1095,223 +1147,223 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
   <si>
     <t xml:space="preserve">indicator</t>
   </si>
@@ -69,6 +69,18 @@
     <t xml:space="preserve">Miquel De Cáceres</t>
   </si>
   <si>
+    <t xml:space="preserve">tree_density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind/ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of living trees larger than minimum diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density of living trees per hectare</t>
+  </si>
+  <si>
     <t xml:space="preserve">dominant_tree_height</t>
   </si>
   <si>
@@ -187,6 +199,9 @@
   </si>
   <si>
     <t xml:space="preserve">Status of trees included in estimation of basal area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of tree density</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of dominant tree height</t>
@@ -635,10 +650,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD11"/>
+  <dimension ref="A1:XFD12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -715,33 +730,30 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="XFB3" s="1"/>
-      <c r="XFC3" s="1"/>
-      <c r="XFD3" s="1"/>
     </row>
     <row r="4" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>21</v>
@@ -770,13 +782,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>14</v>
@@ -787,16 +799,16 @@
     </row>
     <row r="6" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>29</v>
@@ -811,81 +823,107 @@
       <c r="XFC6" s="1"/>
       <c r="XFD6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="XFB7" s="1"/>
+      <c r="XFC7" s="1"/>
+      <c r="XFD7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="XFB9" s="3"/>
-      <c r="XFC9" s="3"/>
-      <c r="XFD9" s="3"/>
-    </row>
-    <row r="10" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="XFB10" s="3"/>
+      <c r="XFC10" s="3"/>
+      <c r="XFD10" s="3"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="H11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="XFB11" s="1"/>
-      <c r="XFC11" s="1"/>
-      <c r="XFD11" s="1"/>
+      <c r="XFB12" s="1"/>
+      <c r="XFC12" s="1"/>
+      <c r="XFD12" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -903,10 +941,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -922,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,13 +974,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,41 +988,41 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,129 +1030,143 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1147,223 +1199,223 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="117">
   <si>
     <t xml:space="preserve">indicator</t>
   </si>
@@ -108,6 +108,15 @@
     <t xml:space="preserve">Dominant tree diameter, i.e the average diameter of the 100 largest trees per hectare</t>
   </si>
   <si>
+    <t xml:space="preserve">mean_tree_height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The average height of living trees larger than a minimum diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean height of living trees</t>
+  </si>
+  <si>
     <t xml:space="preserve">quadratic_mean_tree_diameter</t>
   </si>
   <si>
@@ -208,6 +217,9 @@
   </si>
   <si>
     <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of dominant tree diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of mean tree height</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of quadratic mean tree diameter</t>
@@ -650,10 +662,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD12"/>
+  <dimension ref="A1:XFD13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -805,10 +817,10 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>29</v>
@@ -830,17 +842,17 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>14</v>
@@ -849,81 +861,107 @@
       <c r="XFC7" s="1"/>
       <c r="XFD7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
+    <row r="8" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="I8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="XFB8" s="1"/>
+      <c r="XFC8" s="1"/>
+      <c r="XFD8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="XFB10" s="3"/>
-      <c r="XFC10" s="3"/>
-      <c r="XFD10" s="3"/>
-    </row>
-    <row r="11" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="XFB11" s="3"/>
+      <c r="XFC11" s="3"/>
+      <c r="XFD11" s="3"/>
     </row>
     <row r="12" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="I12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="XFB12" s="1"/>
-      <c r="XFC12" s="1"/>
-      <c r="XFD12" s="1"/>
+      <c r="XFB13" s="1"/>
+      <c r="XFC13" s="1"/>
+      <c r="XFD13" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -941,10 +979,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -960,13 +998,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -974,13 +1012,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,13 +1026,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1002,13 +1040,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,13 +1054,13 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1030,13 +1068,13 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,13 +1082,13 @@
         <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1058,68 +1096,71 @@
         <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
+      <c r="A9" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1127,46 +1168,57 @@
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1199,223 +1251,223 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="137">
   <si>
     <t xml:space="preserve">indicator</t>
   </si>
@@ -51,7 +51,7 @@
     <t xml:space="preserve">implementation_responsible</t>
   </si>
   <si>
-    <t xml:space="preserve">basal_area</t>
+    <t xml:space="preserve">live_basal_area</t>
   </si>
   <si>
     <t xml:space="preserve">state, dbh, n</t>
@@ -60,16 +60,31 @@
     <t xml:space="preserve">m2/ha</t>
   </si>
   <si>
-    <t xml:space="preserve">The sum of tree sections weighted by tree density of trees larger than a pre-specified minimum parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basal area of the stand (focusing of living trees by default)</t>
+    <t xml:space="preserve">The sum of tree sections weighted by tree density of living trees larger than a pre-specified minimum parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basal area of the stand, focusing of living trees</t>
   </si>
   <si>
     <t xml:space="preserve">Miquel De Cáceres</t>
   </si>
   <si>
-    <t xml:space="preserve">tree_density</t>
+    <t xml:space="preserve">dead_basal_area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sum of tree sections weighted by tree density of dead trees larger than a pre-specified minimum parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cut_basal_area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sum of tree sections weighted by tree density of cut trees larger than a pre-specified minimum parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basal area of the stand, focusing of cut trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">live_tree_density</t>
   </si>
   <si>
     <t xml:space="preserve">ind/ha</t>
@@ -81,6 +96,24 @@
     <t xml:space="preserve">Density of living trees per hectare</t>
   </si>
   <si>
+    <t xml:space="preserve">dead_tree_density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of dead trees larger than minimum diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density of dead trees per hectare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cut_tree_density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cut trees larger than minimum diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density of cut trees per hectare</t>
+  </si>
+  <si>
     <t xml:space="preserve">dominant_tree_height</t>
   </si>
   <si>
@@ -141,21 +174,60 @@
     <t xml:space="preserve">timber_harvest</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">state, dbh, h, n, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">plant_entity</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">m3/ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allometric relationships published with the Spanish National Forest Inventory</t>
+  </si>
+  <si>
     <t xml:space="preserve">Volume over bark of harvested wood</t>
   </si>
   <si>
+    <t xml:space="preserve">Núria Aquilué / Miquel De Cáceres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon_stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mg/ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allometric relationships published by INIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total biomass of living trees, including aboveground and belowground components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">density_dead_wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density of large dead wood. By default, large dead tree is as DBH &gt;= 17.5 cm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Núria Aquilué</t>
   </si>
   <si>
-    <t xml:space="preserve">carbon_stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">density_dead_wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Density of large dead wood. By default, large dead tree is as DBH &gt;= 17.5 cm</t>
-  </si>
-  <si>
     <t xml:space="preserve">soil_erosion_rusle</t>
   </si>
   <si>
@@ -198,19 +270,22 @@
     <t xml:space="preserve">7.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of basal area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tree_state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“live”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status of trees included in estimation of basal area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of tree density</t>
+    <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of basal area of live trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of basal area of dead trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of basal area of cut trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of density of live trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of density of dead trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of density of cut trees</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of dominant tree height</t>
@@ -228,12 +303,6 @@
     <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of hart-becking index</t>
   </si>
   <si>
-    <t xml:space="preserve">province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spanish province (numeric code)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of harvest volume</t>
   </si>
   <si>
@@ -255,6 +324,15 @@
     <t xml:space="preserve">Tree species not included in the calculation of harvested volume</t>
   </si>
   <si>
+    <t xml:space="preserve">fraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“total”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A string, either "total" (for total biomass), "stem" (for stem biomass), "branches" (for branch biomass), "aboveground" (for aboveground biomass) or "belowground" (for belowground biomass).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plant species included in the calculation of carbon stock</t>
   </si>
   <si>
@@ -342,10 +420,10 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">state of the cohort, tree, … can be 'live', 'cut', or 'death'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">species</t>
+    <t xml:space="preserve">state of the cohort, tree, … can be 'live', 'cut', or 'dead'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plant_entity</t>
   </si>
   <si>
     <t xml:space="preserve">name or code? of the tree, shrub, … species</t>
@@ -382,7 +460,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +490,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -662,10 +746,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD13"/>
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -674,7 +758,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="61.56"/>
@@ -745,13 +829,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>14</v>
@@ -759,33 +843,30 @@
     </row>
     <row r="4" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="XFB4" s="1"/>
-      <c r="XFC4" s="1"/>
-      <c r="XFD4" s="1"/>
     </row>
     <row r="5" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -794,13 +875,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>14</v>
@@ -811,22 +892,22 @@
     </row>
     <row r="6" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>14</v>
@@ -837,7 +918,7 @@
     </row>
     <row r="7" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -846,13 +927,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>14</v>
@@ -863,22 +944,22 @@
     </row>
     <row r="8" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>14</v>
@@ -887,81 +968,212 @@
       <c r="XFC8" s="1"/>
       <c r="XFD8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="XFB9" s="1"/>
+      <c r="XFC9" s="1"/>
+      <c r="XFD9" s="1"/>
+    </row>
+    <row r="10" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="H10" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="I10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="XFB10" s="1"/>
+      <c r="XFC10" s="1"/>
+      <c r="XFD10" s="1"/>
+    </row>
+    <row r="11" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="XFB11" s="3"/>
-      <c r="XFC11" s="3"/>
-      <c r="XFD11" s="3"/>
-    </row>
-    <row r="12" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="XFB11" s="1"/>
+      <c r="XFC11" s="1"/>
+      <c r="XFD11" s="1"/>
+    </row>
+    <row r="12" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="XFB12" s="1"/>
+      <c r="XFC12" s="1"/>
+      <c r="XFD12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="G13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="H13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="XFB13" s="3"/>
+      <c r="XFC13" s="3"/>
+      <c r="XFD13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="XFB14" s="3"/>
+      <c r="XFC14" s="3"/>
+      <c r="XFD14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="XFB16" s="1"/>
+      <c r="XFC16" s="1"/>
+      <c r="XFD16" s="1"/>
+    </row>
+    <row r="17" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="XFB13" s="1"/>
-      <c r="XFC13" s="1"/>
-      <c r="XFD13" s="1"/>
+      <c r="XFB17" s="1"/>
+      <c r="XFC17" s="1"/>
+      <c r="XFD17" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -979,10 +1191,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -998,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,213 +1224,261 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
+      <c r="A10" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>38</v>
+      <c r="A11" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
+      <c r="A12" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +1500,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1251,223 +1511,223 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="139">
   <si>
     <t xml:space="preserve">indicator</t>
   </si>
@@ -51,7 +51,7 @@
     <t xml:space="preserve">implementation_responsible</t>
   </si>
   <si>
-    <t xml:space="preserve">live_basal_area</t>
+    <t xml:space="preserve">live_tree_basal_area</t>
   </si>
   <si>
     <t xml:space="preserve">state, dbh, n</t>
@@ -69,13 +69,13 @@
     <t xml:space="preserve">Miquel De Cáceres</t>
   </si>
   <si>
-    <t xml:space="preserve">dead_basal_area</t>
+    <t xml:space="preserve">dead_tree_basal_area</t>
   </si>
   <si>
     <t xml:space="preserve">The sum of tree sections weighted by tree density of dead trees larger than a pre-specified minimum parameter</t>
   </si>
   <si>
-    <t xml:space="preserve">cut_basal_area</t>
+    <t xml:space="preserve">cut_tree_basal_area</t>
   </si>
   <si>
     <t xml:space="preserve">The sum of tree sections weighted by tree density of cut trees larger than a pre-specified minimum parameter</t>
@@ -174,31 +174,13 @@
     <t xml:space="preserve">timber_harvest</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">state, dbh, h, n, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">plant_entity</t>
-    </r>
+    <t xml:space="preserve">state, dbh, h, n, plant_entity</t>
   </si>
   <si>
     <t xml:space="preserve">m3/ha</t>
   </si>
   <si>
-    <t xml:space="preserve">Allometric relationships published with the Spanish National Forest Inventory</t>
+    <t xml:space="preserve">Allometric volume relationships</t>
   </si>
   <si>
     <t xml:space="preserve">Volume over bark of harvested wood</t>
@@ -207,16 +189,25 @@
     <t xml:space="preserve">Núria Aquilué / Miquel De Cáceres</t>
   </si>
   <si>
-    <t xml:space="preserve">carbon_stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mg/ha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allometric relationships published by INIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total biomass of living trees, including aboveground and belowground components</t>
+    <t xml:space="preserve">live_tree_carbon_stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mg CO2 / ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allometric biomass relationships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total biomass of living trees in CO2 equivalents, including aboveground and belowground components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">live_tree_biomass_stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mg dry / ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total biomass of living tree in dry weight, including aboveground and belowground components</t>
   </si>
   <si>
     <t xml:space="preserve">density_dead_wood</t>
@@ -324,19 +315,16 @@
     <t xml:space="preserve">Tree species not included in the calculation of harvested volume</t>
   </si>
   <si>
-    <t xml:space="preserve">fraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“total”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A string, either "total" (for total biomass), "stem" (for stem biomass), "branches" (for branch biomass), "aboveground" (for aboveground biomass) or "belowground" (for belowground biomass).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plant species included in the calculation of carbon stock</t>
   </si>
   <si>
     <t xml:space="preserve">Plant species not included in the calculation of carbon stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant species included in the calculation of biomass stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant species not included in the calculation of biomass stock</t>
   </si>
   <si>
     <t xml:space="preserve">17.5</t>
@@ -460,7 +448,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,12 +478,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -746,10 +728,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD17"/>
+  <dimension ref="A1:XFD18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1112,68 +1094,91 @@
         <v>58</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="XFB14" s="3"/>
       <c r="XFC14" s="3"/>
       <c r="XFD14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="XFB15" s="3"/>
+      <c r="XFC15" s="3"/>
+      <c r="XFD15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="H16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="I16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="XFB16" s="1"/>
-      <c r="XFC16" s="1"/>
-      <c r="XFD16" s="1"/>
     </row>
     <row r="17" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>10</v>
+      <c r="I17" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="XFB17" s="1"/>
       <c r="XFC17" s="1"/>
       <c r="XFD17" s="1"/>
+    </row>
+    <row r="18" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="XFB18" s="1"/>
+      <c r="XFC18" s="1"/>
+      <c r="XFD18" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1191,10 +1196,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1210,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,13 +1229,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1238,13 +1243,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1252,13 +1257,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1266,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1280,13 +1285,13 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1294,13 +1299,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1308,13 +1313,13 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1322,13 +1327,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1336,13 +1341,13 @@
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1350,13 +1355,13 @@
         <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,13 +1369,13 @@
         <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,13 +1383,13 @@
         <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1392,10 +1397,10 @@
         <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1403,10 +1408,10 @@
         <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1414,10 +1419,10 @@
         <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,13 +1430,10 @@
         <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,21 +1441,21 @@
         <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,10 +1463,7 @@
         <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>100</v>
@@ -1472,13 +1471,27 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1511,223 +1524,223 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="145">
   <si>
     <t xml:space="preserve">indicator</t>
   </si>
@@ -189,6 +189,12 @@
     <t xml:space="preserve">Núria Aquilué / Miquel De Cáceres</t>
   </si>
   <si>
+    <t xml:space="preserve">live_tree_volume_stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume over bark of living trees</t>
+  </si>
+  <si>
     <t xml:space="preserve">live_tree_carbon_stock</t>
   </si>
   <si>
@@ -300,7 +306,7 @@
     <t xml:space="preserve">max_tree_dbh</t>
   </si>
   <si>
-    <t xml:space="preserve">Maximum  tree diameter to be included in the estimation of density of harvest volume</t>
+    <t xml:space="preserve">Maximum  tree diameter to be included in the estimation of harvest volume</t>
   </si>
   <si>
     <t xml:space="preserve">targeted_species</t>
@@ -313,6 +319,18 @@
   </si>
   <si>
     <t xml:space="preserve">Tree species not included in the calculation of harvested volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of volume stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum  tree diameter to be included in the estimation of volume stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant species included in the calculation of volume stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant species not included in the calculation of volume stock</t>
   </si>
   <si>
     <t xml:space="preserve">Plant species included in the calculation of carbon stock</t>
@@ -728,10 +746,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD18"/>
+  <dimension ref="A1:XFD19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="1" sqref="A17:A20 A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1054,7 +1072,7 @@
       <c r="XFC12" s="1"/>
       <c r="XFD12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1077,7 +1095,7 @@
       <c r="XFC13" s="3"/>
       <c r="XFD13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -1085,36 +1103,36 @@
         <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>54</v>
+      <c r="I14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="XFB14" s="3"/>
       <c r="XFC14" s="3"/>
       <c r="XFD14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>54</v>
@@ -1125,60 +1143,83 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
+      <c r="G16" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="XFB16" s="3"/>
+      <c r="XFC16" s="3"/>
+      <c r="XFD16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="I17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="XFB17" s="1"/>
-      <c r="XFC17" s="1"/>
-      <c r="XFD17" s="1"/>
     </row>
     <row r="18" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>10</v>
+      <c r="I18" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="XFB18" s="1"/>
       <c r="XFC18" s="1"/>
       <c r="XFD18" s="1"/>
+    </row>
+    <row r="19" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="XFB19" s="1"/>
+      <c r="XFC19" s="1"/>
+      <c r="XFD19" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1196,10 +1237,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1215,13 +1256,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,13 +1270,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1243,13 +1284,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1257,13 +1298,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1271,13 +1312,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1285,13 +1326,13 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1299,13 +1340,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1313,13 +1354,13 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1327,13 +1368,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,13 +1382,13 @@
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1355,13 +1396,13 @@
         <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,13 +1410,13 @@
         <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,13 +1424,13 @@
         <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,10 +1438,10 @@
         <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,10 +1449,10 @@
         <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1419,10 +1460,10 @@
         <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1430,10 +1471,13 @@
         <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,57 +1485,101 @@
         <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1513,7 +1601,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="A17:A20 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1524,223 +1612,223 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="144">
   <si>
     <t xml:space="preserve">indicator</t>
   </si>
@@ -87,7 +87,7 @@
     <t xml:space="preserve">live_tree_density</t>
   </si>
   <si>
-    <t xml:space="preserve">ind/ha</t>
+    <t xml:space="preserve">ha-1</t>
   </si>
   <si>
     <t xml:space="preserve">Number of living trees larger than minimum diameter</t>
@@ -198,7 +198,7 @@
     <t xml:space="preserve">live_tree_carbon_stock</t>
   </si>
   <si>
-    <t xml:space="preserve">Mg CO2 / ha</t>
+    <t xml:space="preserve">Mg / ha</t>
   </si>
   <si>
     <t xml:space="preserve">Allometric biomass relationships</t>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t xml:space="preserve">live_tree_biomass_stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mg dry / ha</t>
   </si>
   <si>
     <t xml:space="preserve">Total biomass of living tree in dry weight, including aboveground and belowground components</t>
@@ -748,8 +745,8 @@
   </sheetPr>
   <dimension ref="A1:XFD19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="1" sqref="A17:A20 A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1149,13 +1146,13 @@
         <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>54</v>
@@ -1166,39 +1163,39 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="XFB18" s="1"/>
       <c r="XFC18" s="1"/>
@@ -1206,13 +1203,13 @@
     </row>
     <row r="19" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>10</v>
@@ -1239,8 +1236,8 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17:A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1256,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1270,13 +1267,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,13 +1281,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,13 +1295,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,13 +1309,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1326,13 +1323,13 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1340,13 +1337,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,13 +1351,13 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1368,13 +1365,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1382,13 +1379,13 @@
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,13 +1393,13 @@
         <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,13 +1407,13 @@
         <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,13 +1421,13 @@
         <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1438,10 +1435,10 @@
         <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,10 +1446,10 @@
         <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,10 +1457,10 @@
         <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1471,13 +1468,13 @@
         <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,10 +1482,10 @@
         <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,10 +1493,10 @@
         <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,10 +1504,10 @@
         <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1518,10 +1515,10 @@
         <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,10 +1526,10 @@
         <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,10 +1537,10 @@
         <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,35 +1548,35 @@
         <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1601,7 +1598,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="A17:A20 E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1612,223 +1609,223 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="144">
   <si>
     <t xml:space="preserve">indicator</t>
   </si>
@@ -225,7 +225,7 @@
     <t xml:space="preserve">soil_erosion_rusle</t>
   </si>
   <si>
-    <t xml:space="preserve">slope</t>
+    <t xml:space="preserve">slope_degree</t>
   </si>
   <si>
     <t xml:space="preserve">mean_precipitation, canopy_cover</t>
@@ -375,19 +375,25 @@
     <t xml:space="preserve">area of the stand</t>
   </si>
   <si>
-    <t xml:space="preserve">º</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slope in degrees</t>
+    <t xml:space="preserve">degree_north</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slope in degrees from north</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slope_percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slope in percent</t>
   </si>
   <si>
     <t xml:space="preserve">mean_temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">º C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean temperature for the time period </t>
+    <t xml:space="preserve">celsius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean temperature for the time period in degree Celsius</t>
   </si>
   <si>
     <t xml:space="preserve">mean_precipitation</t>
@@ -420,9 +426,6 @@
     <t xml:space="preserve">character</t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
     <t xml:space="preserve">state of the cohort, tree, … can be 'live', 'cut', or 'dead'</t>
   </si>
   <si>
@@ -445,9 +448,6 @@
   </si>
   <si>
     <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind./ha</t>
   </si>
   <si>
     <t xml:space="preserve">density</t>
@@ -537,7 +537,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -552,6 +552,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -745,8 +749,8 @@
   </sheetPr>
   <dimension ref="A1:XFD19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1595,15 +1599,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="44.11"/>
   </cols>
   <sheetData>
@@ -1641,7 +1646,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -1651,7 +1656,7 @@
       <c r="C3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1669,15 +1674,15 @@
         <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>113</v>
@@ -1686,15 +1691,15 @@
         <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>113</v>
@@ -1703,7 +1708,7 @@
         <v>114</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>126</v>
@@ -1720,7 +1725,7 @@
         <v>114</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>128</v>
@@ -1731,100 +1736,111 @@
         <v>129</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
         <v>143</v>
       </c>
     </row>

--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="148">
   <si>
     <t xml:space="preserve">indicator</t>
   </si>
@@ -213,6 +213,15 @@
     <t xml:space="preserve">Total biomass of living tree in dry weight, including aboveground and belowground components</t>
   </si>
   <si>
+    <t xml:space="preserve">live_tree_carbon_change_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mg / ha / yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual rate of change in biomass of living tree in CO2 equivalent, including aboveground and belowground components</t>
+  </si>
+  <si>
     <t xml:space="preserve">density_dead_wood</t>
   </si>
   <si>
@@ -231,9 +240,6 @@
     <t xml:space="preserve">mean_precipitation, canopy_cover</t>
   </si>
   <si>
-    <t xml:space="preserve">Mg / ha / yr</t>
-  </si>
-  <si>
     <t xml:space="preserve">RUSLE...</t>
   </si>
   <si>
@@ -340,6 +346,12 @@
   </si>
   <si>
     <t xml:space="preserve">Plant species not included in the calculation of biomass stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant species included in the calculation of live tree carbon change rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant species not included in the calculation of live tree carbon change rate</t>
   </si>
   <si>
     <t xml:space="preserve">17.5</t>
@@ -554,7 +566,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -747,10 +759,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD19"/>
+  <dimension ref="A1:XFD20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1170,57 +1182,77 @@
         <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="XFB17" s="3"/>
+      <c r="XFC17" s="3"/>
+      <c r="XFD17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="H18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="I18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="XFB18" s="1"/>
-      <c r="XFC18" s="1"/>
-      <c r="XFD18" s="1"/>
     </row>
     <row r="19" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>10</v>
+      <c r="I19" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="XFB19" s="1"/>
       <c r="XFC19" s="1"/>
       <c r="XFD19" s="1"/>
+    </row>
+    <row r="20" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="XFB20" s="1"/>
+      <c r="XFC20" s="1"/>
+      <c r="XFD20" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1238,10 +1270,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1257,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1271,13 +1303,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1285,13 +1317,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1299,13 +1331,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1313,13 +1345,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1327,13 +1359,13 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,13 +1373,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1355,13 +1387,13 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,13 +1401,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,13 +1415,13 @@
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,13 +1429,13 @@
         <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1411,13 +1443,13 @@
         <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,13 +1457,13 @@
         <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,10 +1471,10 @@
         <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,10 +1482,10 @@
         <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,10 +1493,10 @@
         <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,13 +1504,13 @@
         <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1486,10 +1518,10 @@
         <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,10 +1529,10 @@
         <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,10 +1540,10 @@
         <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1519,10 +1551,10 @@
         <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,10 +1562,10 @@
         <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1541,10 +1573,10 @@
         <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,10 +1584,10 @@
         <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,13 +1595,10 @@
         <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,12 +1606,38 @@
         <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1601,247 +1656,244 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="44.11"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>137</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>137</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>118</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -219,7 +219,7 @@
     <t xml:space="preserve">Mg / ha / yr</t>
   </si>
   <si>
-    <t xml:space="preserve">Annual rate of change in biomass of living tree in CO2 equivalent, including aboveground and belowground components</t>
+    <t xml:space="preserve">Annual rate of change in biomass of living tree in CO2 equivalent, including aboveground and belowground components. Positive values mean sequestration.</t>
   </si>
   <si>
     <t xml:space="preserve">density_dead_wood</t>

--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="152">
   <si>
     <t xml:space="preserve">indicator</t>
   </si>
@@ -222,6 +222,12 @@
     <t xml:space="preserve">Annual rate of change in biomass of living tree in CO2 equivalent, including aboveground and belowground components. Positive values mean sequestration.</t>
   </si>
   <si>
+    <t xml:space="preserve">timber_harvest_carbon_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual rate of CO2 equivalents due to timber harvest, including stem biomass component only. Positive values mean sequestration.</t>
+  </si>
+  <si>
     <t xml:space="preserve">density_dead_wood</t>
   </si>
   <si>
@@ -352,6 +358,30 @@
   </si>
   <si>
     <t xml:space="preserve">Plant species not included in the calculation of live tree carbon change rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant species included in the calculation of timber harvest carbon rate</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Plant species not included in the calculation of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">timber harvest carbon rate</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">17.5</t>
@@ -475,7 +505,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +535,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -759,10 +795,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD20"/>
+  <dimension ref="A1:XFD21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1202,57 +1238,77 @@
         <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="XFB18" s="3"/>
+      <c r="XFC18" s="3"/>
+      <c r="XFD18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="I19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="XFB19" s="1"/>
-      <c r="XFC19" s="1"/>
-      <c r="XFD19" s="1"/>
     </row>
     <row r="20" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>10</v>
+      <c r="I20" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="XFB20" s="1"/>
       <c r="XFC20" s="1"/>
       <c r="XFD20" s="1"/>
+    </row>
+    <row r="21" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="XFB21" s="1"/>
+      <c r="XFC21" s="1"/>
+      <c r="XFD21" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1270,10 +1326,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1289,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1303,13 +1359,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1317,13 +1373,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1331,13 +1387,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,13 +1401,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,13 +1415,13 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1373,13 +1429,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1387,13 +1443,13 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,13 +1457,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1415,13 +1471,13 @@
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1429,13 +1485,13 @@
         <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1443,13 +1499,13 @@
         <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,13 +1513,13 @@
         <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1471,10 +1527,10 @@
         <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1482,10 +1538,10 @@
         <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,10 +1549,10 @@
         <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1504,13 +1560,13 @@
         <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1518,10 +1574,10 @@
         <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,10 +1585,10 @@
         <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,10 +1596,10 @@
         <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,10 +1607,10 @@
         <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,10 +1618,10 @@
         <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1573,10 +1629,10 @@
         <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1584,10 +1640,10 @@
         <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1595,10 +1651,10 @@
         <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,10 +1662,10 @@
         <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1617,27 +1673,48 @@
         <v>66</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1669,231 +1746,231 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="159">
   <si>
     <t xml:space="preserve">indicator</t>
   </si>
@@ -171,7 +171,7 @@
     <t xml:space="preserve">Hart-Becking index of tree spacing</t>
   </si>
   <si>
-    <t xml:space="preserve">timber_harvest</t>
+    <t xml:space="preserve">timber_harvest_volume</t>
   </si>
   <si>
     <t xml:space="preserve">state, dbh, h, n, plant_entity</t>
@@ -228,6 +228,15 @@
     <t xml:space="preserve">Annual rate of CO2 equivalents due to timber harvest, including stem biomass component only. Positive values mean sequestration.</t>
   </si>
   <si>
+    <t xml:space="preserve">timber_harvest_volume_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3/ha/yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual rate of timber volume harvest.</t>
+  </si>
+  <si>
     <t xml:space="preserve">density_dead_wood</t>
   </si>
   <si>
@@ -360,28 +369,22 @@
     <t xml:space="preserve">Plant species not included in the calculation of live tree carbon change rate</t>
   </si>
   <si>
+    <t xml:space="preserve">Minimum  tree diameter to be included in the estimation of harvest volume rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum  tree diameter to be included in the estimation of harvest volume rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree species included in the calculation of harvested volume rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree species not included in the calculation of harvested volume rate</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plant species included in the calculation of timber harvest carbon rate</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Plant species not included in the calculation of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">timber harvest carbon rate</t>
-    </r>
+    <t xml:space="preserve">Plant species not included in the calculation of timber harvest carbon rate</t>
   </si>
   <si>
     <t xml:space="preserve">17.5</t>
@@ -505,7 +508,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,12 +538,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -795,10 +792,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD21"/>
+  <dimension ref="A1:XFD22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1258,57 +1255,80 @@
         <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="XFB19" s="3"/>
+      <c r="XFC19" s="3"/>
+      <c r="XFD19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="H20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="I20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="XFB20" s="1"/>
-      <c r="XFC20" s="1"/>
-      <c r="XFD20" s="1"/>
     </row>
     <row r="21" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="F21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>10</v>
+      <c r="I21" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="XFB21" s="1"/>
       <c r="XFC21" s="1"/>
       <c r="XFD21" s="1"/>
+    </row>
+    <row r="22" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="XFB22" s="1"/>
+      <c r="XFC22" s="1"/>
+      <c r="XFD22" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1326,10 +1346,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1345,13 +1365,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,13 +1379,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1373,13 +1393,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1387,13 +1407,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,13 +1421,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1415,13 +1435,13 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1429,13 +1449,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1443,13 +1463,13 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,13 +1477,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1471,13 +1491,13 @@
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,13 +1505,13 @@
         <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,13 +1519,13 @@
         <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1513,13 +1533,13 @@
         <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1527,10 +1547,10 @@
         <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1538,10 +1558,10 @@
         <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,10 +1569,10 @@
         <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1560,13 +1580,13 @@
         <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1574,10 +1594,10 @@
         <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,10 +1605,10 @@
         <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,10 +1616,10 @@
         <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1607,10 +1627,10 @@
         <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,10 +1638,10 @@
         <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1629,10 +1649,10 @@
         <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1640,10 +1660,10 @@
         <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1651,10 +1671,10 @@
         <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,32 +1682,35 @@
         <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1695,13 +1718,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,10 +1729,57 @@
         <v>68</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1746,231 +1813,231 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/forestindicators_input.xlsx
+++ b/data-raw/forestindicators_input.xlsx
@@ -2284,6 +2284,239 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095DDF5E8B92F09488F6994CC76A3261F" ma:contentTypeVersion="14" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="ad6274f92da21c1fa92834950b4b6454">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="10b2415f-6b16-408d-a5df-bf55a3837e9c" xmlns:ns3="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b2293d8fa2decaf6f47bf84bfb1876b" ns2:_="" ns3:_="">
+    <xsd:import namespace="10b2415f-6b16-408d-a5df-bf55a3837e9c"/>
+    <xsd:import namespace="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="10b2415f-6b16-408d-a5df-bf55a3837e9c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetes de la imatge" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d19f90c4-00d9-45b7-bc62-04f95cbe7a8b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="21" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cebcb379-39a5-4efc-8079-d623ba702961}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipus de contingut"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Títol"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="10b2415f-6b16-408d-a5df-bf55a3837e9c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cb52536f-ae72-4a59-84ed-2e4ff2cac1d8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB7D4ED6-746B-48CE-AEFA-75DD54485591}">
   <ds:schemaRefs>
@@ -2320,4 +2553,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C92F428-AB1C-4E17-8561-2026037316BB}"/>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{892FA8AF-34B4-49C1-92A4-61726842E93D}"/>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE0A8587-40BC-4237-9B9B-A1E4BD740F21}"/>
 </file>